--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2652,28 +2652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>565.3199758564168</v>
+        <v>638.136113942462</v>
       </c>
       <c r="AB2" t="n">
-        <v>773.4957311238973</v>
+        <v>873.1259836745152</v>
       </c>
       <c r="AC2" t="n">
-        <v>699.6743841535085</v>
+        <v>789.7960652326334</v>
       </c>
       <c r="AD2" t="n">
-        <v>565319.9758564169</v>
+        <v>638136.113942462</v>
       </c>
       <c r="AE2" t="n">
-        <v>773495.7311238972</v>
+        <v>873125.9836745152</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.433647116735206e-06</v>
+        <v>2.423651582964491e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.13194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>699674.3841535086</v>
+        <v>789796.0652326334</v>
       </c>
     </row>
     <row r="3">
@@ -2758,28 +2758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>349.0727102814279</v>
+        <v>401.0598799583115</v>
       </c>
       <c r="AB3" t="n">
-        <v>477.6166822081507</v>
+        <v>548.7478212721211</v>
       </c>
       <c r="AC3" t="n">
-        <v>432.0336163974276</v>
+        <v>496.3760993823133</v>
       </c>
       <c r="AD3" t="n">
-        <v>349072.7102814279</v>
+        <v>401059.8799583114</v>
       </c>
       <c r="AE3" t="n">
-        <v>477616.6822081507</v>
+        <v>548747.821272121</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.992652901427474e-06</v>
+        <v>3.36867859773019e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.16975308641975</v>
       </c>
       <c r="AH3" t="n">
-        <v>432033.6163974276</v>
+        <v>496376.0993823133</v>
       </c>
     </row>
     <row r="4">
@@ -2864,28 +2864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>299.478757092248</v>
+        <v>341.1367834191223</v>
       </c>
       <c r="AB4" t="n">
-        <v>409.7600475239165</v>
+        <v>466.7583969667605</v>
       </c>
       <c r="AC4" t="n">
-        <v>370.6531236900718</v>
+        <v>422.2116306597766</v>
       </c>
       <c r="AD4" t="n">
-        <v>299478.7570922479</v>
+        <v>341136.7834191223</v>
       </c>
       <c r="AE4" t="n">
-        <v>409760.0475239165</v>
+        <v>466758.3969667605</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.202673958641338e-06</v>
+        <v>3.723729615397234e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.197530864197532</v>
       </c>
       <c r="AH4" t="n">
-        <v>370653.1236900717</v>
+        <v>422211.6306597766</v>
       </c>
     </row>
     <row r="5">
@@ -2970,28 +2970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>268.0193908082658</v>
+        <v>320.0064709765983</v>
       </c>
       <c r="AB5" t="n">
-        <v>366.7159546848839</v>
+        <v>437.8469712793058</v>
       </c>
       <c r="AC5" t="n">
-        <v>331.7170986588327</v>
+        <v>396.0594708624918</v>
       </c>
       <c r="AD5" t="n">
-        <v>268019.3908082658</v>
+        <v>320006.4709765983</v>
       </c>
       <c r="AE5" t="n">
-        <v>366715.9546848839</v>
+        <v>437846.9712793058</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.32225834155606e-06</v>
+        <v>3.92589294803736e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.726851851851853</v>
       </c>
       <c r="AH5" t="n">
-        <v>331717.0986588327</v>
+        <v>396059.4708624918</v>
       </c>
     </row>
     <row r="6">
@@ -3076,28 +3076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>253.4604893532528</v>
+        <v>295.0331748255587</v>
       </c>
       <c r="AB6" t="n">
-        <v>346.79582342057</v>
+        <v>403.6774057413845</v>
       </c>
       <c r="AC6" t="n">
-        <v>313.6981167644093</v>
+        <v>365.1510007022233</v>
       </c>
       <c r="AD6" t="n">
-        <v>253460.4893532528</v>
+        <v>295033.1748255587</v>
       </c>
       <c r="AE6" t="n">
-        <v>346795.82342057</v>
+        <v>403677.4057413845</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.3963617953517e-06</v>
+        <v>4.051168513410754e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.456790123456791</v>
       </c>
       <c r="AH6" t="n">
-        <v>313698.1167644094</v>
+        <v>365151.0007022233</v>
       </c>
     </row>
     <row r="7">
@@ -3182,28 +3182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>242.469979676735</v>
+        <v>284.0426651490408</v>
       </c>
       <c r="AB7" t="n">
-        <v>331.7581232140992</v>
+        <v>388.6397055349059</v>
       </c>
       <c r="AC7" t="n">
-        <v>300.0955935600945</v>
+        <v>351.5484774979063</v>
       </c>
       <c r="AD7" t="n">
-        <v>242469.979676735</v>
+        <v>284042.6651490408</v>
       </c>
       <c r="AE7" t="n">
-        <v>331758.1232140991</v>
+        <v>388639.7055349059</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.442788055561016e-06</v>
+        <v>4.129654409789265e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.294753086419753</v>
       </c>
       <c r="AH7" t="n">
-        <v>300095.5935600945</v>
+        <v>351548.4774979062</v>
       </c>
     </row>
     <row r="8">
@@ -3288,28 +3288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>240.0446612117171</v>
+        <v>281.6173466840228</v>
       </c>
       <c r="AB8" t="n">
-        <v>328.4396954927641</v>
+        <v>385.3212778135692</v>
       </c>
       <c r="AC8" t="n">
-        <v>297.0938719230401</v>
+        <v>348.5467558608514</v>
       </c>
       <c r="AD8" t="n">
-        <v>240044.6612117171</v>
+        <v>281617.3466840228</v>
       </c>
       <c r="AE8" t="n">
-        <v>328439.6954927641</v>
+        <v>385321.2778135692</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.449878038737778e-06</v>
+        <v>4.141640378127612e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.271604938271606</v>
       </c>
       <c r="AH8" t="n">
-        <v>297093.8719230401</v>
+        <v>348546.7558608514</v>
       </c>
     </row>
   </sheetData>
@@ -3585,28 +3585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>429.5002885233841</v>
+        <v>489.9584442405244</v>
       </c>
       <c r="AB2" t="n">
-        <v>587.6612429731268</v>
+        <v>670.382758850905</v>
       </c>
       <c r="AC2" t="n">
-        <v>531.5756787315055</v>
+        <v>606.4023692342852</v>
       </c>
       <c r="AD2" t="n">
-        <v>429500.2885233841</v>
+        <v>489958.4442405244</v>
       </c>
       <c r="AE2" t="n">
-        <v>587661.2429731268</v>
+        <v>670382.758850905</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.695516400285287e-06</v>
+        <v>2.936280055054167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.36111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>531575.6787315055</v>
+        <v>606402.3692342852</v>
       </c>
     </row>
     <row r="3">
@@ -3691,28 +3691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>286.4295984837986</v>
+        <v>336.7118455025071</v>
       </c>
       <c r="AB3" t="n">
-        <v>391.9056130275883</v>
+        <v>460.7040016947643</v>
       </c>
       <c r="AC3" t="n">
-        <v>354.502691363217</v>
+        <v>416.7350583751426</v>
       </c>
       <c r="AD3" t="n">
-        <v>286429.5984837986</v>
+        <v>336711.8455025071</v>
       </c>
       <c r="AE3" t="n">
-        <v>391905.6130275883</v>
+        <v>460704.0016947642</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.215395804102575e-06</v>
+        <v>3.836602531560619e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.459876543209877</v>
       </c>
       <c r="AH3" t="n">
-        <v>354502.691363217</v>
+        <v>416735.0583751426</v>
       </c>
     </row>
     <row r="4">
@@ -3797,28 +3797,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>246.5860472227112</v>
+        <v>296.9535455874432</v>
       </c>
       <c r="AB4" t="n">
-        <v>337.3899084185852</v>
+        <v>406.3049417385736</v>
       </c>
       <c r="AC4" t="n">
-        <v>305.1898890889263</v>
+        <v>367.5277683516106</v>
       </c>
       <c r="AD4" t="n">
-        <v>246586.0472227111</v>
+        <v>296953.5455874432</v>
       </c>
       <c r="AE4" t="n">
-        <v>337389.9084185851</v>
+        <v>406304.9417385736</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.405386218477018e-06</v>
+        <v>4.165626222682266e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.715277777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>305189.8890889264</v>
+        <v>367527.7683516106</v>
       </c>
     </row>
     <row r="5">
@@ -3903,28 +3903,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>228.4052344637761</v>
+        <v>268.6822544931989</v>
       </c>
       <c r="AB5" t="n">
-        <v>312.5141183209718</v>
+        <v>367.6229140220913</v>
       </c>
       <c r="AC5" t="n">
-        <v>282.6882094848307</v>
+        <v>332.5374990698225</v>
       </c>
       <c r="AD5" t="n">
-        <v>228405.2344637761</v>
+        <v>268682.2544931989</v>
       </c>
       <c r="AE5" t="n">
-        <v>312514.1183209718</v>
+        <v>367622.9140220913</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.509264306061787e-06</v>
+        <v>4.34552136063611e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.352623456790123</v>
       </c>
       <c r="AH5" t="n">
-        <v>282688.2094848307</v>
+        <v>332537.4990698225</v>
       </c>
     </row>
     <row r="6">
@@ -4009,28 +4009,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>222.025568119984</v>
+        <v>262.3025881494067</v>
       </c>
       <c r="AB6" t="n">
-        <v>303.7851773783846</v>
+        <v>358.8939730794996</v>
       </c>
       <c r="AC6" t="n">
-        <v>274.7923464146556</v>
+        <v>324.6416359996462</v>
       </c>
       <c r="AD6" t="n">
-        <v>222025.568119984</v>
+        <v>262302.5881494067</v>
       </c>
       <c r="AE6" t="n">
-        <v>303785.1773783846</v>
+        <v>358893.9730794996</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.541970691378749e-06</v>
+        <v>4.402161984615302e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.2445987654321</v>
       </c>
       <c r="AH6" t="n">
-        <v>274792.3464146556</v>
+        <v>324641.6359996462</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.6284682203967</v>
+        <v>247.0900201798088</v>
       </c>
       <c r="AB2" t="n">
-        <v>288.1911624912157</v>
+        <v>338.0794664522035</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.6866024219759</v>
+        <v>305.8136366716172</v>
       </c>
       <c r="AD2" t="n">
-        <v>210628.4682203967</v>
+        <v>247090.0201798088</v>
       </c>
       <c r="AE2" t="n">
-        <v>288191.1624912157</v>
+        <v>338079.4664522035</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.540260821924544e-06</v>
+        <v>4.80672011309508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.209104938271606</v>
       </c>
       <c r="AH2" t="n">
-        <v>260686.6024219758</v>
+        <v>305813.6366716172</v>
       </c>
     </row>
     <row r="3">
@@ -4412,28 +4412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.0837401272126</v>
+        <v>217.6305434326453</v>
       </c>
       <c r="AB3" t="n">
-        <v>247.7667620927289</v>
+        <v>297.7717107063659</v>
       </c>
       <c r="AC3" t="n">
-        <v>224.1202500615055</v>
+        <v>269.352796561859</v>
       </c>
       <c r="AD3" t="n">
-        <v>181083.7401272127</v>
+        <v>217630.5434326453</v>
       </c>
       <c r="AE3" t="n">
-        <v>247766.7620927289</v>
+        <v>297771.7107063659</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.73625774897533e-06</v>
+        <v>5.177588475598931e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.549382716049383</v>
       </c>
       <c r="AH3" t="n">
-        <v>224120.2500615055</v>
+        <v>269352.796561859</v>
       </c>
     </row>
   </sheetData>
@@ -4709,28 +4709,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>276.4662058677939</v>
+        <v>323.8641084166356</v>
       </c>
       <c r="AB2" t="n">
-        <v>378.2732596965107</v>
+        <v>443.1251610117176</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.1713907009294</v>
+        <v>400.833917574828</v>
       </c>
       <c r="AD2" t="n">
-        <v>276466.2058677939</v>
+        <v>323864.1084166357</v>
       </c>
       <c r="AE2" t="n">
-        <v>378273.2596965107</v>
+        <v>443125.1610117176</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.20434691538019e-06</v>
+        <v>4.015841351266152e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.15046296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>342171.3907009293</v>
+        <v>400833.917574828</v>
       </c>
     </row>
     <row r="3">
@@ -4815,28 +4815,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.2538334393583</v>
+        <v>240.3256974098193</v>
       </c>
       <c r="AB3" t="n">
-        <v>276.7326177209935</v>
+        <v>328.8242216174494</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.3216450824514</v>
+        <v>297.4416994140714</v>
       </c>
       <c r="AD3" t="n">
-        <v>202253.8334393583</v>
+        <v>240325.6974098193</v>
       </c>
       <c r="AE3" t="n">
-        <v>276732.6177209935</v>
+        <v>328824.2216174494</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.625984519958541e-06</v>
+        <v>4.783973497753862e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.522376543209877</v>
       </c>
       <c r="AH3" t="n">
-        <v>250321.6450824514</v>
+        <v>297441.6994140714</v>
       </c>
     </row>
     <row r="4">
@@ -4921,28 +4921,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.7522596799917</v>
+        <v>233.6535314498605</v>
       </c>
       <c r="AB4" t="n">
-        <v>267.8368776742418</v>
+        <v>319.6950697958508</v>
       </c>
       <c r="AC4" t="n">
-        <v>242.2749019805092</v>
+        <v>289.1838210294782</v>
       </c>
       <c r="AD4" t="n">
-        <v>195752.2596799918</v>
+        <v>233653.5314498605</v>
       </c>
       <c r="AE4" t="n">
-        <v>267836.8776742418</v>
+        <v>319695.0697958508</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.677137802934896e-06</v>
+        <v>4.877163670133802e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.356481481481483</v>
       </c>
       <c r="AH4" t="n">
-        <v>242274.9019805093</v>
+        <v>289183.8210294782</v>
       </c>
     </row>
   </sheetData>
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.0954409982132</v>
+        <v>214.0233499789776</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.7320864548952</v>
+        <v>292.8361894849165</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.520462765242</v>
+        <v>264.8883145587357</v>
       </c>
       <c r="AD2" t="n">
-        <v>170095.4409982132</v>
+        <v>214023.3499789776</v>
       </c>
       <c r="AE2" t="n">
-        <v>232732.0864548952</v>
+        <v>292836.1894849165</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.749089444620672e-06</v>
+        <v>5.387329553551795e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.834876543209877</v>
       </c>
       <c r="AH2" t="n">
-        <v>210520.462765242</v>
+        <v>264888.3145587357</v>
       </c>
     </row>
     <row r="3">
@@ -5324,28 +5324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.0511023347427</v>
+        <v>214.9790113155071</v>
       </c>
       <c r="AB3" t="n">
-        <v>234.0396644563368</v>
+        <v>294.1437674863582</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.7032473574237</v>
+        <v>266.0710991509173</v>
       </c>
       <c r="AD3" t="n">
-        <v>171051.1023347427</v>
+        <v>214979.0113155071</v>
       </c>
       <c r="AE3" t="n">
-        <v>234039.6644563368</v>
+        <v>294143.7674863582</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.749341296523436e-06</v>
+        <v>5.387823102134412e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.834876543209877</v>
       </c>
       <c r="AH3" t="n">
-        <v>211703.2473574237</v>
+        <v>266071.0991509174</v>
       </c>
     </row>
   </sheetData>
@@ -5621,28 +5621,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>455.7906078807528</v>
+        <v>526.9352124562937</v>
       </c>
       <c r="AB2" t="n">
-        <v>623.6328177649107</v>
+        <v>720.9760044236028</v>
       </c>
       <c r="AC2" t="n">
-        <v>564.1141769115839</v>
+        <v>652.1670664575909</v>
       </c>
       <c r="AD2" t="n">
-        <v>455790.6078807528</v>
+        <v>526935.2124562938</v>
       </c>
       <c r="AE2" t="n">
-        <v>623632.8177649106</v>
+        <v>720976.0044236028</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.625259679674206e-06</v>
+        <v>2.796228735844517e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.78163580246914</v>
       </c>
       <c r="AH2" t="n">
-        <v>564114.1769115839</v>
+        <v>652167.0664575909</v>
       </c>
     </row>
     <row r="3">
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>299.3166780199041</v>
+        <v>350.1952104699845</v>
       </c>
       <c r="AB3" t="n">
-        <v>409.5382837867116</v>
+        <v>479.1525364873472</v>
       </c>
       <c r="AC3" t="n">
-        <v>370.4525247726984</v>
+        <v>433.4228908998026</v>
       </c>
       <c r="AD3" t="n">
-        <v>299316.6780199041</v>
+        <v>350195.2104699845</v>
       </c>
       <c r="AE3" t="n">
-        <v>409538.2837867116</v>
+        <v>479152.5364873472</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.155813873125131e-06</v>
+        <v>3.70903725512537e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.637345679012347</v>
       </c>
       <c r="AH3" t="n">
-        <v>370452.5247726984</v>
+        <v>433422.8908998026</v>
       </c>
     </row>
     <row r="4">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>257.2055049791106</v>
+        <v>307.9986965746226</v>
       </c>
       <c r="AB4" t="n">
-        <v>351.9199190182949</v>
+        <v>421.4174045969037</v>
       </c>
       <c r="AC4" t="n">
-        <v>318.3331758700024</v>
+        <v>381.1979189652165</v>
       </c>
       <c r="AD4" t="n">
-        <v>257205.5049791106</v>
+        <v>307998.6965746226</v>
       </c>
       <c r="AE4" t="n">
-        <v>351919.9190182949</v>
+        <v>421417.4045969037</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.351366220457561e-06</v>
+        <v>4.045481393752128e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.834876543209877</v>
       </c>
       <c r="AH4" t="n">
-        <v>318333.1758700024</v>
+        <v>381197.9189652165</v>
       </c>
     </row>
     <row r="5">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>238.5815136806683</v>
+        <v>279.199088294715</v>
       </c>
       <c r="AB5" t="n">
-        <v>326.4377524912708</v>
+        <v>382.0125099992877</v>
       </c>
       <c r="AC5" t="n">
-        <v>295.2829915518641</v>
+        <v>345.5537722028801</v>
       </c>
       <c r="AD5" t="n">
-        <v>238581.5136806683</v>
+        <v>279199.088294715</v>
       </c>
       <c r="AE5" t="n">
-        <v>326437.7524912708</v>
+        <v>382012.5099992877</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.460772159273502e-06</v>
+        <v>4.233712255450798e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.441358024691358</v>
       </c>
       <c r="AH5" t="n">
-        <v>295282.9915518641</v>
+        <v>345553.7722028801</v>
       </c>
     </row>
     <row r="6">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>223.2657716651286</v>
+        <v>263.8833462791751</v>
       </c>
       <c r="AB6" t="n">
-        <v>305.4820785827694</v>
+        <v>361.0568360907756</v>
       </c>
       <c r="AC6" t="n">
-        <v>276.3272977497103</v>
+        <v>326.5980784007233</v>
       </c>
       <c r="AD6" t="n">
-        <v>223265.7716651286</v>
+        <v>263883.3462791751</v>
       </c>
       <c r="AE6" t="n">
-        <v>305482.0785827694</v>
+        <v>361056.8360907756</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.538734658980924e-06</v>
+        <v>4.367845271070717e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.182870370370372</v>
       </c>
       <c r="AH6" t="n">
-        <v>276327.2977497103</v>
+        <v>326598.0784007233</v>
       </c>
     </row>
     <row r="7">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>223.775447607388</v>
+        <v>264.3930222214345</v>
       </c>
       <c r="AB7" t="n">
-        <v>306.1794396922841</v>
+        <v>361.7541972002905</v>
       </c>
       <c r="AC7" t="n">
-        <v>276.9581036936855</v>
+        <v>327.2288843446985</v>
       </c>
       <c r="AD7" t="n">
-        <v>223775.447607388</v>
+        <v>264393.0222214345</v>
       </c>
       <c r="AE7" t="n">
-        <v>306179.439692284</v>
+        <v>361754.1972002905</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.542072832310938e-06</v>
+        <v>4.37358853555168e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.171296296296298</v>
       </c>
       <c r="AH7" t="n">
-        <v>276958.1036936856</v>
+        <v>327228.8843446986</v>
       </c>
     </row>
   </sheetData>
@@ -6448,28 +6448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.2413343975409</v>
+        <v>207.7113258377766</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.0364365908748</v>
+        <v>284.1997995880777</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.4140117654385</v>
+        <v>257.076169592399</v>
       </c>
       <c r="AD2" t="n">
-        <v>173241.3343975409</v>
+        <v>207711.3258377766</v>
       </c>
       <c r="AE2" t="n">
-        <v>237036.4365908748</v>
+        <v>284199.7995880777</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.730311198220637e-06</v>
+        <v>5.473346674876919e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.10493827160494</v>
       </c>
       <c r="AH2" t="n">
-        <v>214414.0117654385</v>
+        <v>257076.169592399</v>
       </c>
     </row>
   </sheetData>
@@ -6745,28 +6745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>348.4623564330185</v>
+        <v>397.5337046631443</v>
       </c>
       <c r="AB2" t="n">
-        <v>476.7815691458457</v>
+        <v>543.9231526693985</v>
       </c>
       <c r="AC2" t="n">
-        <v>431.2782053537005</v>
+        <v>492.0118903795697</v>
       </c>
       <c r="AD2" t="n">
-        <v>348462.3564330185</v>
+        <v>397533.7046631443</v>
       </c>
       <c r="AE2" t="n">
-        <v>476781.5691458457</v>
+        <v>543923.1526693985</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.927598670000324e-06</v>
+        <v>3.413920478451939e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.2037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>431278.2053537004</v>
+        <v>492011.8903795697</v>
       </c>
     </row>
     <row r="3">
@@ -6851,28 +6851,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>239.4288139728775</v>
+        <v>288.4147318398836</v>
       </c>
       <c r="AB3" t="n">
-        <v>327.5970661313216</v>
+        <v>394.6217600632866</v>
       </c>
       <c r="AC3" t="n">
-        <v>296.3316619252157</v>
+        <v>356.9596131379645</v>
       </c>
       <c r="AD3" t="n">
-        <v>239428.8139728775</v>
+        <v>288414.7318398836</v>
       </c>
       <c r="AE3" t="n">
-        <v>327597.0661313217</v>
+        <v>394621.7600632866</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.406363666646647e-06</v>
+        <v>4.261848863055245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.973765432098766</v>
       </c>
       <c r="AH3" t="n">
-        <v>296331.6619252157</v>
+        <v>356959.6131379646</v>
       </c>
     </row>
     <row r="4">
@@ -6957,28 +6957,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>213.9340327542756</v>
+        <v>253.1057883855144</v>
       </c>
       <c r="AB4" t="n">
-        <v>292.7139817176816</v>
+        <v>346.3105059082082</v>
       </c>
       <c r="AC4" t="n">
-        <v>264.7777701292858</v>
+        <v>313.25911727428</v>
       </c>
       <c r="AD4" t="n">
-        <v>213934.0327542757</v>
+        <v>253105.7883855143</v>
       </c>
       <c r="AE4" t="n">
-        <v>292713.9817176816</v>
+        <v>346310.5059082082</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.580225946499737e-06</v>
+        <v>4.569771879842088e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.368055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>264777.7701292859</v>
+        <v>313259.1172742799</v>
       </c>
     </row>
     <row r="5">
@@ -7063,28 +7063,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>209.286577958366</v>
+        <v>248.4583335896047</v>
       </c>
       <c r="AB5" t="n">
-        <v>286.3551290346859</v>
+        <v>339.9516532252126</v>
       </c>
       <c r="AC5" t="n">
-        <v>259.0257974216476</v>
+        <v>307.5071445666416</v>
       </c>
       <c r="AD5" t="n">
-        <v>209286.577958366</v>
+        <v>248458.3335896047</v>
       </c>
       <c r="AE5" t="n">
-        <v>286355.1290346859</v>
+        <v>339951.6532252126</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.608270055387825e-06</v>
+        <v>4.619440080553682e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.279320987654323</v>
       </c>
       <c r="AH5" t="n">
-        <v>259025.7974216475</v>
+        <v>307507.1445666415</v>
       </c>
     </row>
   </sheetData>
@@ -7360,28 +7360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>393.8859898837956</v>
+        <v>463.7306500314318</v>
       </c>
       <c r="AB2" t="n">
-        <v>538.9321883824749</v>
+        <v>634.4967337254072</v>
       </c>
       <c r="AC2" t="n">
-        <v>487.4972567193278</v>
+        <v>573.9412559804125</v>
       </c>
       <c r="AD2" t="n">
-        <v>393885.9898837956</v>
+        <v>463730.6500314318</v>
       </c>
       <c r="AE2" t="n">
-        <v>538932.1883824749</v>
+        <v>634496.7337254073</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.770909185440439e-06</v>
+        <v>3.088310985027063e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.9483024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>487497.2567193278</v>
+        <v>573941.2559804125</v>
       </c>
     </row>
     <row r="3">
@@ -7466,28 +7466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>274.2843138195037</v>
+        <v>324.1246800880397</v>
       </c>
       <c r="AB3" t="n">
-        <v>375.2878987377563</v>
+        <v>443.4816866681434</v>
       </c>
       <c r="AC3" t="n">
-        <v>339.4709484020981</v>
+        <v>401.1564169229915</v>
       </c>
       <c r="AD3" t="n">
-        <v>274284.3138195036</v>
+        <v>324124.6800880397</v>
       </c>
       <c r="AE3" t="n">
-        <v>375287.8987377563</v>
+        <v>443481.6866681434</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.273349615550379e-06</v>
+        <v>3.964523222440204e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.309413580246913</v>
       </c>
       <c r="AH3" t="n">
-        <v>339470.9484020981</v>
+        <v>401156.4169229915</v>
       </c>
     </row>
     <row r="4">
@@ -7572,28 +7572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>235.6345331892772</v>
+        <v>285.5601508038367</v>
       </c>
       <c r="AB4" t="n">
-        <v>322.405563771348</v>
+        <v>390.7159963545399</v>
       </c>
       <c r="AC4" t="n">
-        <v>291.635629264157</v>
+        <v>353.4266100358068</v>
       </c>
       <c r="AD4" t="n">
-        <v>235634.5331892772</v>
+        <v>285560.1508038367</v>
       </c>
       <c r="AE4" t="n">
-        <v>322405.563771348</v>
+        <v>390715.9963545399</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.463115349441919e-06</v>
+        <v>4.295458092154151e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.591820987654321</v>
       </c>
       <c r="AH4" t="n">
-        <v>291635.629264157</v>
+        <v>353426.6100358068</v>
       </c>
     </row>
     <row r="5">
@@ -7678,28 +7678,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>218.7359123550772</v>
+        <v>258.6594277843619</v>
       </c>
       <c r="AB5" t="n">
-        <v>299.2841252314718</v>
+        <v>353.9092403431534</v>
       </c>
       <c r="AC5" t="n">
-        <v>270.7208683673763</v>
+        <v>320.1326391595405</v>
       </c>
       <c r="AD5" t="n">
-        <v>218735.9123550772</v>
+        <v>258659.4277843619</v>
       </c>
       <c r="AE5" t="n">
-        <v>299284.1252314718</v>
+        <v>353909.2403431534</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.55701099580675e-06</v>
+        <v>4.459203900521283e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.275462962962964</v>
       </c>
       <c r="AH5" t="n">
-        <v>270720.8683673763</v>
+        <v>320132.6391595405</v>
       </c>
     </row>
     <row r="6">
@@ -7784,28 +7784,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>218.2739253056034</v>
+        <v>258.197440734888</v>
       </c>
       <c r="AB6" t="n">
-        <v>298.6520141689517</v>
+        <v>353.2771292806331</v>
       </c>
       <c r="AC6" t="n">
-        <v>270.1490850974896</v>
+        <v>319.5608558896537</v>
       </c>
       <c r="AD6" t="n">
-        <v>218273.9253056034</v>
+        <v>258197.440734888</v>
       </c>
       <c r="AE6" t="n">
-        <v>298652.0141689517</v>
+        <v>353277.1292806331</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.559753275198246e-06</v>
+        <v>4.463986196326399e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.267746913580247</v>
       </c>
       <c r="AH6" t="n">
-        <v>270149.0850974896</v>
+        <v>319560.8558896537</v>
       </c>
     </row>
   </sheetData>
@@ -8081,28 +8081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>523.8431623320192</v>
+        <v>596.2051395989647</v>
       </c>
       <c r="AB2" t="n">
-        <v>716.7453250319464</v>
+        <v>815.754174713711</v>
       </c>
       <c r="AC2" t="n">
-        <v>648.3401571692784</v>
+        <v>737.8997411972088</v>
       </c>
       <c r="AD2" t="n">
-        <v>523843.1623320192</v>
+        <v>596205.1395989647</v>
       </c>
       <c r="AE2" t="n">
-        <v>716745.3250319464</v>
+        <v>815754.174713711</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.493916789268649e-06</v>
+        <v>2.539559530361736e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.67283950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>648340.1571692785</v>
+        <v>737899.7411972088</v>
       </c>
     </row>
     <row r="3">
@@ -8187,28 +8187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>325.3221911894719</v>
+        <v>387.1760614234248</v>
       </c>
       <c r="AB3" t="n">
-        <v>445.120174187584</v>
+        <v>529.7513682418441</v>
       </c>
       <c r="AC3" t="n">
-        <v>402.6385294932085</v>
+        <v>479.1926411675568</v>
       </c>
       <c r="AD3" t="n">
-        <v>325322.1911894719</v>
+        <v>387176.0614234247</v>
       </c>
       <c r="AE3" t="n">
-        <v>445120.174187584</v>
+        <v>529751.3682418441</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.044686111577332e-06</v>
+        <v>3.47583087529028e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.988425925925927</v>
       </c>
       <c r="AH3" t="n">
-        <v>402638.5294932085</v>
+        <v>479192.6411675568</v>
       </c>
     </row>
     <row r="4">
@@ -8293,28 +8293,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>288.1669848875989</v>
+        <v>329.5167756915474</v>
       </c>
       <c r="AB4" t="n">
-        <v>394.2827817533465</v>
+        <v>450.8593897553317</v>
       </c>
       <c r="AC4" t="n">
-        <v>356.652986442166</v>
+        <v>407.8300023822099</v>
       </c>
       <c r="AD4" t="n">
-        <v>288166.9848875989</v>
+        <v>329516.7756915474</v>
       </c>
       <c r="AE4" t="n">
-        <v>394282.7817533464</v>
+        <v>450859.3897553317</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.254056802631815e-06</v>
+        <v>3.831747173751678e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>356652.986442166</v>
+        <v>407830.0023822099</v>
       </c>
     </row>
     <row r="5">
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>258.1114690483315</v>
+        <v>309.7132548130066</v>
       </c>
       <c r="AB5" t="n">
-        <v>353.1594990262831</v>
+        <v>423.7633388196316</v>
       </c>
       <c r="AC5" t="n">
-        <v>319.4544521016839</v>
+        <v>383.3199605182667</v>
       </c>
       <c r="AD5" t="n">
-        <v>258111.4690483314</v>
+        <v>309713.2548130066</v>
       </c>
       <c r="AE5" t="n">
-        <v>353159.4990262832</v>
+        <v>423763.3388196316</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.367556363092197e-06</v>
+        <v>4.024688904194469e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.626543209876543</v>
       </c>
       <c r="AH5" t="n">
-        <v>319454.4521016839</v>
+        <v>383319.9605182667</v>
       </c>
     </row>
     <row r="6">
@@ -8505,28 +8505,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>243.5498667329663</v>
+        <v>284.8143166823461</v>
       </c>
       <c r="AB6" t="n">
-        <v>333.2356723256885</v>
+        <v>389.6955132056373</v>
       </c>
       <c r="AC6" t="n">
-        <v>301.4321274582276</v>
+        <v>352.5035203663784</v>
       </c>
       <c r="AD6" t="n">
-        <v>243549.8667329663</v>
+        <v>284814.3166823461</v>
       </c>
       <c r="AE6" t="n">
-        <v>333235.6723256885</v>
+        <v>389695.5132056373</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.442411017239109e-06</v>
+        <v>4.15193685514881e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.36033950617284</v>
       </c>
       <c r="AH6" t="n">
-        <v>301432.1274582276</v>
+        <v>352503.5203663784</v>
       </c>
     </row>
     <row r="7">
@@ -8611,28 +8611,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>235.2189449882086</v>
+        <v>276.4833949375883</v>
       </c>
       <c r="AB7" t="n">
-        <v>321.8369376601888</v>
+        <v>378.2967785401317</v>
       </c>
       <c r="AC7" t="n">
-        <v>291.1212720309749</v>
+        <v>342.192664939124</v>
       </c>
       <c r="AD7" t="n">
-        <v>235218.9449882086</v>
+        <v>276483.3949375884</v>
       </c>
       <c r="AE7" t="n">
-        <v>321836.9376601888</v>
+        <v>378296.7785401317</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.473803386340325e-06</v>
+        <v>4.205301802048331e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.256172839506172</v>
       </c>
       <c r="AH7" t="n">
-        <v>291121.2720309749</v>
+        <v>342192.664939124</v>
       </c>
     </row>
     <row r="8">
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>236.1894502263176</v>
+        <v>277.4539001756974</v>
       </c>
       <c r="AB8" t="n">
-        <v>323.1648257426382</v>
+        <v>379.6246666225819</v>
       </c>
       <c r="AC8" t="n">
-        <v>292.3224283385384</v>
+        <v>343.3938212466877</v>
       </c>
       <c r="AD8" t="n">
-        <v>236189.4502263176</v>
+        <v>277453.9001756974</v>
       </c>
       <c r="AE8" t="n">
-        <v>323164.8257426382</v>
+        <v>379624.6666225818</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.471738795455085e-06</v>
+        <v>4.201792134377031e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.263888888888891</v>
       </c>
       <c r="AH8" t="n">
-        <v>292322.4283385384</v>
+        <v>343393.8212466877</v>
       </c>
     </row>
   </sheetData>
@@ -9014,28 +9014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>297.1919043947222</v>
+        <v>345.3179770550637</v>
       </c>
       <c r="AB2" t="n">
-        <v>406.6310747743411</v>
+        <v>472.4792905607001</v>
       </c>
       <c r="AC2" t="n">
-        <v>367.822775708175</v>
+        <v>427.3865301984353</v>
       </c>
       <c r="AD2" t="n">
-        <v>297191.9043947222</v>
+        <v>345317.9770550637</v>
       </c>
       <c r="AE2" t="n">
-        <v>406631.0747743411</v>
+        <v>472479.2905607001</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.101733532416801e-06</v>
+        <v>3.789922913049686e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.51311728395062</v>
       </c>
       <c r="AH2" t="n">
-        <v>367822.775708175</v>
+        <v>427386.5301984353</v>
       </c>
     </row>
     <row r="3">
@@ -9120,28 +9120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.9219430393768</v>
+        <v>262.8773339905778</v>
       </c>
       <c r="AB3" t="n">
-        <v>294.0656841532821</v>
+        <v>359.6803656953869</v>
       </c>
       <c r="AC3" t="n">
-        <v>266.0004679815594</v>
+        <v>325.3529764079822</v>
       </c>
       <c r="AD3" t="n">
-        <v>214921.9430393768</v>
+        <v>262877.3339905778</v>
       </c>
       <c r="AE3" t="n">
-        <v>294065.6841532821</v>
+        <v>359680.3656953869</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.549077818800464e-06</v>
+        <v>4.596590520925623e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.668981481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>266000.4679815594</v>
+        <v>325352.9764079822</v>
       </c>
     </row>
     <row r="4">
@@ -9226,28 +9226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>200.0723099604433</v>
+        <v>238.4196440590382</v>
       </c>
       <c r="AB4" t="n">
-        <v>273.74776105512</v>
+        <v>326.2162753337728</v>
       </c>
       <c r="AC4" t="n">
-        <v>247.6216589474953</v>
+        <v>295.0826518634325</v>
       </c>
       <c r="AD4" t="n">
-        <v>200072.3099604433</v>
+        <v>238419.6440590382</v>
       </c>
       <c r="AE4" t="n">
-        <v>273747.76105512</v>
+        <v>326216.2753337728</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.655201101692402e-06</v>
+        <v>4.787955912987345e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.32175925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>247621.6589474953</v>
+        <v>295082.6518634325</v>
       </c>
     </row>
   </sheetData>
@@ -9523,28 +9523,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.0812153588485</v>
+        <v>275.3398178562326</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.4390252037818</v>
+        <v>376.7320859263605</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.5248445528605</v>
+        <v>340.7773043923513</v>
       </c>
       <c r="AD2" t="n">
-        <v>229081.2153588485</v>
+        <v>275339.8178562326</v>
       </c>
       <c r="AE2" t="n">
-        <v>313439.0252037818</v>
+        <v>376732.0859263605</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.420363003922354e-06</v>
+        <v>4.515623713861851e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.51003086419753</v>
       </c>
       <c r="AH2" t="n">
-        <v>283524.8445528605</v>
+        <v>340777.3043923513</v>
       </c>
     </row>
     <row r="3">
@@ -9629,28 +9629,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.3623802767256</v>
+        <v>222.2840109286095</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.6209863055709</v>
+        <v>304.1387902308377</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.415755331931</v>
+        <v>275.1122109527696</v>
       </c>
       <c r="AD3" t="n">
-        <v>185362.3802767256</v>
+        <v>222284.0109286095</v>
       </c>
       <c r="AE3" t="n">
-        <v>253620.9863055709</v>
+        <v>304138.7902308378</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.725272306454881e-06</v>
+        <v>5.084487010343277e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.445216049382715</v>
       </c>
       <c r="AH3" t="n">
-        <v>229415.755331931</v>
+        <v>275112.2109527696</v>
       </c>
     </row>
   </sheetData>
@@ -16971,28 +16971,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.3626581153257</v>
+        <v>226.111430493217</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.1483899890582</v>
+        <v>309.3756345329651</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.4654559270273</v>
+        <v>279.8492581846608</v>
       </c>
       <c r="AD2" t="n">
-        <v>181362.6581153257</v>
+        <v>226111.430493217</v>
       </c>
       <c r="AE2" t="n">
-        <v>248148.3899890582</v>
+        <v>309375.6345329651</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.687349971181886e-06</v>
+        <v>5.167873651215003e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.858024691358025</v>
       </c>
       <c r="AH2" t="n">
-        <v>224465.4559270273</v>
+        <v>279849.2581846607</v>
       </c>
     </row>
     <row r="3">
@@ -17077,28 +17077,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.2313480290771</v>
+        <v>220.9801204069683</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.1275051516322</v>
+        <v>302.3547496955392</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.1146344846092</v>
+        <v>273.4984367422428</v>
       </c>
       <c r="AD3" t="n">
-        <v>176231.3480290771</v>
+        <v>220980.1204069683</v>
       </c>
       <c r="AE3" t="n">
-        <v>241127.5051516322</v>
+        <v>302354.7496955392</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.747766900906478e-06</v>
+        <v>5.284057647553116e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.665123456790123</v>
       </c>
       <c r="AH3" t="n">
-        <v>218114.6344846092</v>
+        <v>273498.4367422428</v>
       </c>
     </row>
   </sheetData>
@@ -17374,28 +17374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.3780034703604</v>
+        <v>209.388337220873</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.0139685444061</v>
+        <v>286.4943605469497</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.1571968097175</v>
+        <v>259.1517408737936</v>
       </c>
       <c r="AD2" t="n">
-        <v>167378.0034703604</v>
+        <v>209388.337220873</v>
       </c>
       <c r="AE2" t="n">
-        <v>229013.9685444061</v>
+        <v>286494.3605469497</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.662916784305073e-06</v>
+        <v>5.4925303521531e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.594907407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>207157.1968097175</v>
+        <v>259151.7408737936</v>
       </c>
     </row>
   </sheetData>
@@ -17671,28 +17671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>371.1952597809175</v>
+        <v>430.6566156020419</v>
       </c>
       <c r="AB2" t="n">
-        <v>507.8857304113553</v>
+        <v>589.2433806956968</v>
       </c>
       <c r="AC2" t="n">
-        <v>459.4138291229945</v>
+        <v>533.0068194503775</v>
       </c>
       <c r="AD2" t="n">
-        <v>371195.2597809175</v>
+        <v>430656.6156020419</v>
       </c>
       <c r="AE2" t="n">
-        <v>507885.7304113553</v>
+        <v>589243.3806956968</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.84497813347637e-06</v>
+        <v>3.241553800234351e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.58179012345679</v>
       </c>
       <c r="AH2" t="n">
-        <v>459413.8291229944</v>
+        <v>533006.8194503775</v>
       </c>
     </row>
     <row r="3">
@@ -17777,28 +17777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>262.2691508519671</v>
+        <v>301.9101442412677</v>
       </c>
       <c r="AB3" t="n">
-        <v>358.8482226939933</v>
+        <v>413.0867786864359</v>
       </c>
       <c r="AC3" t="n">
-        <v>324.6002519667215</v>
+        <v>373.6623562995369</v>
       </c>
       <c r="AD3" t="n">
-        <v>262269.1508519671</v>
+        <v>301910.1442412677</v>
       </c>
       <c r="AE3" t="n">
-        <v>358848.2226939932</v>
+        <v>413086.7786864359</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.334819357072957e-06</v>
+        <v>4.102185506946824e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.151234567901234</v>
       </c>
       <c r="AH3" t="n">
-        <v>324600.2519667215</v>
+        <v>373662.3562995369</v>
       </c>
     </row>
     <row r="4">
@@ -17883,28 +17883,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>224.9039112262858</v>
+        <v>264.4595637610176</v>
       </c>
       <c r="AB4" t="n">
-        <v>307.7234533999606</v>
+        <v>361.8452422703536</v>
       </c>
       <c r="AC4" t="n">
-        <v>278.3547589001388</v>
+        <v>327.3112402010574</v>
       </c>
       <c r="AD4" t="n">
-        <v>224903.9112262858</v>
+        <v>264459.5637610176</v>
       </c>
       <c r="AE4" t="n">
-        <v>307723.4533999606</v>
+        <v>361845.2422703536</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.520884795279555e-06</v>
+        <v>4.429095142008139e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.476080246913579</v>
       </c>
       <c r="AH4" t="n">
-        <v>278354.7589001388</v>
+        <v>327311.2402010574</v>
       </c>
     </row>
     <row r="5">
@@ -17989,28 +17989,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>213.3888615628717</v>
+        <v>252.9445140976001</v>
       </c>
       <c r="AB5" t="n">
-        <v>291.9680544423475</v>
+        <v>346.0898433125647</v>
       </c>
       <c r="AC5" t="n">
-        <v>264.103033106194</v>
+        <v>313.0595144070626</v>
       </c>
       <c r="AD5" t="n">
-        <v>213388.8615628717</v>
+        <v>252944.5140976001</v>
       </c>
       <c r="AE5" t="n">
-        <v>291968.0544423475</v>
+        <v>346089.8433125647</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.583589789637955e-06</v>
+        <v>4.539265343523294e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.271604938271606</v>
       </c>
       <c r="AH5" t="n">
-        <v>264103.033106194</v>
+        <v>313059.5144070626</v>
       </c>
     </row>
     <row r="6">
@@ -18095,28 +18095,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>214.0527730619967</v>
+        <v>253.6084255967252</v>
       </c>
       <c r="AB6" t="n">
-        <v>292.8764474451581</v>
+        <v>346.9982363153752</v>
       </c>
       <c r="AC6" t="n">
-        <v>264.9247303557542</v>
+        <v>313.8812116566227</v>
       </c>
       <c r="AD6" t="n">
-        <v>214052.7730619967</v>
+        <v>253608.4255967252</v>
       </c>
       <c r="AE6" t="n">
-        <v>292876.4474451581</v>
+        <v>346998.2363153752</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.583368217219728e-06</v>
+        <v>4.538876049525008e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.271604938271606</v>
       </c>
       <c r="AH6" t="n">
-        <v>264924.7303557542</v>
+        <v>313881.2116566227</v>
       </c>
     </row>
   </sheetData>
@@ -18392,28 +18392,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>494.176140993954</v>
+        <v>565.8108962002707</v>
       </c>
       <c r="AB2" t="n">
-        <v>676.153597620596</v>
+        <v>774.1674299962352</v>
       </c>
       <c r="AC2" t="n">
-        <v>611.62244725122</v>
+        <v>700.2819770282059</v>
       </c>
       <c r="AD2" t="n">
-        <v>494176.140993954</v>
+        <v>565810.8962002707</v>
       </c>
       <c r="AE2" t="n">
-        <v>676153.5976205959</v>
+        <v>774167.4299962352</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.55790660116335e-06</v>
+        <v>2.663846671145695e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.21759259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>611622.44725122</v>
+        <v>700281.9770282059</v>
       </c>
     </row>
     <row r="3">
@@ -18498,28 +18498,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>312.2159049372266</v>
+        <v>363.5054387993044</v>
       </c>
       <c r="AB3" t="n">
-        <v>427.1875751287207</v>
+        <v>497.3641780933535</v>
       </c>
       <c r="AC3" t="n">
-        <v>386.417392519962</v>
+        <v>449.8964389911314</v>
       </c>
       <c r="AD3" t="n">
-        <v>312215.9049372266</v>
+        <v>363505.4387993044</v>
       </c>
       <c r="AE3" t="n">
-        <v>427187.5751287207</v>
+        <v>497364.1780933535</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.09927193896225e-06</v>
+        <v>3.589521067731717e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.810956790123457</v>
       </c>
       <c r="AH3" t="n">
-        <v>386417.392519962</v>
+        <v>449896.4389911314</v>
       </c>
     </row>
     <row r="4">
@@ -18604,28 +18604,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>267.8374157986011</v>
+        <v>319.0416088061072</v>
       </c>
       <c r="AB4" t="n">
-        <v>366.4669684484899</v>
+        <v>436.5268042909252</v>
       </c>
       <c r="AC4" t="n">
-        <v>331.4918753193858</v>
+        <v>394.8652987586163</v>
       </c>
       <c r="AD4" t="n">
-        <v>267837.4157986011</v>
+        <v>319041.6088061072</v>
       </c>
       <c r="AE4" t="n">
-        <v>366466.9684484898</v>
+        <v>436526.8042909252</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.298907746827354e-06</v>
+        <v>3.930876051288385e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.958333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>331491.8753193858</v>
+        <v>394865.2987586163</v>
       </c>
     </row>
     <row r="5">
@@ -18710,28 +18710,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>248.5024934928383</v>
+        <v>289.6194614370753</v>
       </c>
       <c r="AB5" t="n">
-        <v>340.0120747530141</v>
+        <v>396.2701242470828</v>
       </c>
       <c r="AC5" t="n">
-        <v>307.5617995486319</v>
+        <v>358.450659757553</v>
       </c>
       <c r="AD5" t="n">
-        <v>248502.4934928383</v>
+        <v>289619.4614370753</v>
       </c>
       <c r="AE5" t="n">
-        <v>340012.0747530141</v>
+        <v>396270.1242470829</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.412817590138619e-06</v>
+        <v>4.125649188964837e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.533950617283951</v>
       </c>
       <c r="AH5" t="n">
-        <v>307561.7995486319</v>
+        <v>358450.659757553</v>
       </c>
     </row>
     <row r="6">
@@ -18816,28 +18816,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>232.2284702247855</v>
+        <v>273.17484596843</v>
       </c>
       <c r="AB6" t="n">
-        <v>317.7452381584399</v>
+        <v>373.7698758776502</v>
       </c>
       <c r="AC6" t="n">
-        <v>287.4200785869353</v>
+        <v>338.0978035132021</v>
       </c>
       <c r="AD6" t="n">
-        <v>232228.4702247855</v>
+        <v>273174.84596843</v>
       </c>
       <c r="AE6" t="n">
-        <v>317745.2381584399</v>
+        <v>373769.8758776502</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.498917204600227e-06</v>
+        <v>4.272869934546896e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.24074074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>287420.0785869353</v>
+        <v>338097.8035132021</v>
       </c>
     </row>
     <row r="7">
@@ -18922,28 +18922,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>230.5699566864552</v>
+        <v>271.5163324300996</v>
       </c>
       <c r="AB7" t="n">
-        <v>315.4759867668442</v>
+        <v>371.5006244860533</v>
       </c>
       <c r="AC7" t="n">
-        <v>285.3674013632384</v>
+        <v>336.0451262895048</v>
       </c>
       <c r="AD7" t="n">
-        <v>230569.9566864551</v>
+        <v>271516.3324300996</v>
       </c>
       <c r="AE7" t="n">
-        <v>315475.9867668442</v>
+        <v>371500.6244860532</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.497903011993426e-06</v>
+        <v>4.27113577821332e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.2445987654321</v>
       </c>
       <c r="AH7" t="n">
-        <v>285367.4013632384</v>
+        <v>336045.1262895048</v>
       </c>
     </row>
   </sheetData>
@@ -19219,28 +19219,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.7104058027374</v>
+        <v>218.4526357486487</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.2052643138915</v>
+        <v>298.8965336812745</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.043919789976</v>
+        <v>270.3702680107417</v>
       </c>
       <c r="AD2" t="n">
-        <v>169710.4058027374</v>
+        <v>218452.6357486487</v>
       </c>
       <c r="AE2" t="n">
-        <v>232205.2643138915</v>
+        <v>298896.5336812746</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.471511535400883e-06</v>
+        <v>5.297587575002585e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.70601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>210043.919789976</v>
+        <v>270370.2680107417</v>
       </c>
     </row>
   </sheetData>
@@ -19516,28 +19516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.9770192997008</v>
+        <v>294.8682391751009</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.2930977796786</v>
+        <v>403.4517335079807</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.9114407285406</v>
+        <v>364.9468663100426</v>
       </c>
       <c r="AD2" t="n">
-        <v>247977.0192997008</v>
+        <v>294868.2391751009</v>
       </c>
       <c r="AE2" t="n">
-        <v>339293.0977796786</v>
+        <v>403451.7335079807</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.306602361343357e-06</v>
+        <v>4.249759236086776e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.834104938271604</v>
       </c>
       <c r="AH2" t="n">
-        <v>306911.4407285406</v>
+        <v>364946.8663100426</v>
       </c>
     </row>
     <row r="3">
@@ -19622,28 +19622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.0910703965157</v>
+        <v>228.5187949508122</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.4592328594351</v>
+        <v>312.6694967892696</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.5059306357449</v>
+        <v>282.8287588501893</v>
       </c>
       <c r="AD3" t="n">
-        <v>191091.0703965157</v>
+        <v>228518.7949508122</v>
       </c>
       <c r="AE3" t="n">
-        <v>261459.2328594351</v>
+        <v>312669.4967892696</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.694249827208841e-06</v>
+        <v>4.963973539347971e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.418209876543209</v>
       </c>
       <c r="AH3" t="n">
-        <v>236505.9306357449</v>
+        <v>282828.7588501893</v>
       </c>
     </row>
     <row r="4">
@@ -19728,28 +19728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>191.2978147802006</v>
+        <v>228.7255393344971</v>
       </c>
       <c r="AB4" t="n">
-        <v>261.742109646111</v>
+        <v>312.9523735759457</v>
       </c>
       <c r="AC4" t="n">
-        <v>236.7618100589207</v>
+        <v>283.0846382733651</v>
       </c>
       <c r="AD4" t="n">
-        <v>191297.8147802006</v>
+        <v>228725.5393344971</v>
       </c>
       <c r="AE4" t="n">
-        <v>261742.1096461111</v>
+        <v>312952.3735759457</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.6964837677158e-06</v>
+        <v>4.968089424019479e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.410493827160494</v>
       </c>
       <c r="AH4" t="n">
-        <v>236761.8100589207</v>
+        <v>283084.6382733651</v>
       </c>
     </row>
   </sheetData>
@@ -20025,28 +20025,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>316.8574720793829</v>
+        <v>375.0547166702255</v>
       </c>
       <c r="AB2" t="n">
-        <v>433.5383720641092</v>
+        <v>513.1664095945275</v>
       </c>
       <c r="AC2" t="n">
-        <v>392.1620783092366</v>
+        <v>464.1905276964045</v>
       </c>
       <c r="AD2" t="n">
-        <v>316857.4720793829</v>
+        <v>375054.7166702255</v>
       </c>
       <c r="AE2" t="n">
-        <v>433538.3720641092</v>
+        <v>513166.4095945276</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.015248505304391e-06</v>
+        <v>3.600094385355448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.83719135802469</v>
       </c>
       <c r="AH2" t="n">
-        <v>392162.0783092366</v>
+        <v>464190.5276964045</v>
       </c>
     </row>
     <row r="3">
@@ -20131,28 +20131,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>227.6123904754818</v>
+        <v>276.0958708254248</v>
       </c>
       <c r="AB3" t="n">
-        <v>311.4293141983799</v>
+        <v>377.7665509535123</v>
       </c>
       <c r="AC3" t="n">
-        <v>281.7069375451663</v>
+        <v>341.7130415291925</v>
       </c>
       <c r="AD3" t="n">
-        <v>227612.3904754817</v>
+        <v>276095.8708254248</v>
       </c>
       <c r="AE3" t="n">
-        <v>311429.3141983799</v>
+        <v>377766.5509535123</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.473256956502906e-06</v>
+        <v>4.418293058752338e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.82716049382716</v>
       </c>
       <c r="AH3" t="n">
-        <v>281706.9375451664</v>
+        <v>341713.0415291925</v>
       </c>
     </row>
     <row r="4">
@@ -20237,28 +20237,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>205.1975985274393</v>
+        <v>243.9674041450277</v>
       </c>
       <c r="AB4" t="n">
-        <v>280.7604069842538</v>
+        <v>333.8069654333213</v>
       </c>
       <c r="AC4" t="n">
-        <v>253.9650277914652</v>
+        <v>301.948897153483</v>
       </c>
       <c r="AD4" t="n">
-        <v>205197.5985274393</v>
+        <v>243967.4041450277</v>
       </c>
       <c r="AE4" t="n">
-        <v>280760.4069842538</v>
+        <v>333806.9654333213</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.625171771507455e-06</v>
+        <v>4.689677789275973e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.317901234567902</v>
       </c>
       <c r="AH4" t="n">
-        <v>253965.0277914652</v>
+        <v>301948.8971534829</v>
       </c>
     </row>
     <row r="5">
@@ -20343,28 +20343,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>205.0693172934451</v>
+        <v>243.8391229110335</v>
       </c>
       <c r="AB5" t="n">
-        <v>280.5848869405344</v>
+        <v>333.6314453896019</v>
       </c>
       <c r="AC5" t="n">
-        <v>253.8062591343743</v>
+        <v>301.7901284963921</v>
       </c>
       <c r="AD5" t="n">
-        <v>205069.3172934451</v>
+        <v>243839.1229110335</v>
       </c>
       <c r="AE5" t="n">
-        <v>280584.8869405344</v>
+        <v>333631.4453896019</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.630209185268784e-06</v>
+        <v>4.698676761338791e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.30246913580247</v>
       </c>
       <c r="AH5" t="n">
-        <v>253806.2591343743</v>
+        <v>301790.1284963921</v>
       </c>
     </row>
   </sheetData>
